--- a/dev_docs/Tetra数值公式_11_4.xlsx
+++ b/dev_docs/Tetra数值公式_11_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50913E-6911-41B7-8186-A209095AEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C3AE5-455F-4B3D-BD7B-8CA9422CE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="1050" windowWidth="15620" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -1229,10 +1229,10 @@
   <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/dev_docs/Tetra数值公式_11_4.xlsx
+++ b/dev_docs/Tetra数值公式_11_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C3AE5-455F-4B3D-BD7B-8CA9422CE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DFF55-B017-42AE-AD63-36A216591977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -748,7 +748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,6 +845,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -873,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -951,6 +963,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1228,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="10" topLeftCell="G119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7433,8 +7447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:S67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7481,7 +7495,7 @@
       <c r="N6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="28">
         <v>1</v>
       </c>
     </row>
@@ -7618,7 +7632,7 @@
         <f>Q10*(1+(Q11*0.02))</f>
         <v>8.5002999999999993</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="27">
         <f>R10/R7</f>
         <v>1.3204349514563101</v>
       </c>
@@ -7734,7 +7748,7 @@
         <f>SUM(F13:N13)</f>
         <v>-200</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="28">
         <v>2</v>
       </c>
     </row>
@@ -7763,7 +7777,7 @@
         <f>Q17*(1+(Q18*0.02))</f>
         <v>17.301200000000001</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="27">
         <f>R17/R14</f>
         <v>1.30575094339623</v>
       </c>
@@ -7775,7 +7789,7 @@
       </c>
     </row>
     <row r="20" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q20">
+      <c r="Q20" s="28">
         <v>5</v>
       </c>
     </row>
@@ -7804,7 +7818,7 @@
         <f>Q24*(1+(Q25*0.02))</f>
         <v>45.5075</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="27">
         <f>R24/R21</f>
         <v>1.2662956521739099</v>
       </c>
@@ -7816,7 +7830,7 @@
       </c>
     </row>
     <row r="27" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q27">
+      <c r="Q27" s="28">
         <v>10</v>
       </c>
     </row>
@@ -7845,7 +7859,7 @@
         <f>Q31*(1+(Q32*0.02))</f>
         <v>98.53</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="27">
         <f>R31/R28</f>
         <v>1.2126769230769201</v>
       </c>
@@ -7857,7 +7871,7 @@
       </c>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q34">
+      <c r="Q34" s="28">
         <v>15</v>
       </c>
     </row>
@@ -7886,7 +7900,7 @@
         <f>Q38*(1+(Q39*0.02))</f>
         <v>159.0675</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="27">
         <f>R38/R35</f>
         <v>1.17015172413793</v>
       </c>
@@ -7898,7 +7912,7 @@
       </c>
     </row>
     <row r="41" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q41">
+      <c r="Q41" s="28">
         <v>20</v>
       </c>
     </row>
@@ -7927,7 +7941,7 @@
         <f>Q45*(1+(Q46*0.02))</f>
         <v>227.12</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="27">
         <f>R45/R42</f>
         <v>1.1355999999999999</v>
       </c>
@@ -7939,7 +7953,7 @@
       </c>
     </row>
     <row r="48" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q48">
+      <c r="Q48" s="28">
         <v>25</v>
       </c>
     </row>
@@ -7968,7 +7982,7 @@
         <f>Q52*(1+(Q53*0.02))</f>
         <v>302.6875</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="27">
         <f>R52/R49</f>
         <v>1.10697142857143</v>
       </c>
@@ -7980,7 +7994,7 @@
       </c>
     </row>
     <row r="55" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q55">
+      <c r="Q55" s="28">
         <v>35</v>
       </c>
     </row>
@@ -8009,7 +8023,7 @@
         <f>Q59*(1+(Q60*0.02))</f>
         <v>476.36750000000001</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="27">
         <f>R59/R56</f>
         <v>1.0622829268292699</v>
       </c>
@@ -8021,7 +8035,7 @@
       </c>
     </row>
     <row r="62" spans="17:19" x14ac:dyDescent="0.3">
-      <c r="Q62">
+      <c r="Q62" s="28">
         <v>40</v>
       </c>
     </row>
@@ -8050,7 +8064,7 @@
         <f>Q66*(1+(Q67*0.02))</f>
         <v>574.48</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="27">
         <f>R66/R63</f>
         <v>1.0445090909090899</v>
       </c>

--- a/dev_docs/Tetra数值公式_11_4.xlsx
+++ b/dev_docs/Tetra数值公式_11_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DFF55-B017-42AE-AD63-36A216591977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA9DF8D-237C-4923-BCF9-D1B71C5DA3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="1500" windowWidth="15620" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="238">
   <si>
     <t>刀刃</t>
   </si>
@@ -601,12 +601,6 @@
   </si>
   <si>
     <t>1.4.0</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
   </si>
   <si>
     <t>头</t>
@@ -708,6 +702,77 @@
   </si>
   <si>
     <t>逻辑导向零件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界合金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regions_unexplored:hanging_earlight_fruit</t>
+  </si>
+  <si>
+    <t>垂悬耳灯果</t>
+  </si>
+  <si>
+    <t>软</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴斯锭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜伤害+0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲+0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退抗性+0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石裂骸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'thermal:basalz_rod'</t>
+  </si>
+  <si>
+    <t>'#forge:ingots/netherite'</t>
+  </si>
+  <si>
+    <t>韧性+0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'#forge:ingots/ostrum'</t>
+  </si>
+  <si>
+    <t>#forge:ingots/desh'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -965,6 +1030,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1240,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S142"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G119" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59:R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1636,11 +1713,11 @@
         <v>3.25</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" ref="K11:K97" si="2">(G11*$I$5)+(H11*$I$6)+(I11*$I$7)</f>
+        <f t="shared" ref="K11:K93" si="2">(G11*$I$5)+(H11*$I$6)+(I11*$I$7)</f>
         <v>1.3</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" ref="L11:L54" si="3">J11+K11</f>
+        <f t="shared" ref="L11:L55" si="3">J11+K11</f>
         <v>4.55</v>
       </c>
       <c r="M11" s="13">
@@ -1746,11 +1823,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="M13" s="13">
-        <f t="shared" ref="M13:M98" si="10">I13*$M$2</f>
+        <f t="shared" ref="M13:M94" si="10">I13*$M$2</f>
         <v>6.8750000000000009</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" ref="N13:N98" si="11">I13*$M$3</f>
+        <f t="shared" ref="N13:N94" si="11">I13*$M$3</f>
         <v>1.6500000000000001</v>
       </c>
       <c r="O13" s="10">
@@ -2126,7 +2203,7 @@
         <v>0.9</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" ref="J20:J106" si="12">(G20*$I$2)+(H20*$I$3)</f>
+        <f t="shared" ref="J20:J102" si="12">(G20*$I$2)+(H20*$I$3)</f>
         <v>2.75</v>
       </c>
       <c r="K20" s="10">
@@ -2514,11 +2591,11 @@
         <v>7</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" ref="M27:M54" si="13">I27*$M$2</f>
+        <f t="shared" ref="M27:M55" si="13">I27*$M$2</f>
         <v>7.5</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" ref="N27:N54" si="14">I27*$M$3</f>
+        <f t="shared" ref="N27:N55" si="14">I27*$M$3</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="O27" s="10">
@@ -2801,7 +2878,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
       <c r="D33" s="17" t="s">
         <v>109</v>
@@ -2853,7 +2930,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="17" t="s">
         <v>112</v>
@@ -2905,7 +2982,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -2965,7 +3042,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
         <v>118</v>
@@ -3017,7 +3094,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
         <v>121</v>
@@ -3069,7 +3146,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>10</v>
       </c>
@@ -3129,7 +3206,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
         <v>127</v>
@@ -3181,7 +3258,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
       <c r="D40" s="17" t="s">
         <v>130</v>
@@ -3233,7 +3310,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>11</v>
       </c>
@@ -3293,7 +3370,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
         <v>136</v>
@@ -3345,7 +3422,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>13</v>
       </c>
@@ -3405,7 +3482,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
         <v>141</v>
@@ -3457,7 +3534,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" s="17" t="s">
         <v>143</v>
@@ -3509,211 +3586,210 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="4"/>
+      <c r="D46" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="16">
+        <v>2</v>
+      </c>
+      <c r="H46" s="16">
+        <v>9</v>
+      </c>
+      <c r="I46" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J46" s="23">
+        <f t="shared" ref="J46" si="20">(G46*$I$2)+(H46*$I$3)</f>
+        <v>8.5</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" ref="K46" si="21">(G46*$I$5)+(H46*$I$6)+(I46*$I$7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="shared" ref="L46" si="22">J46+K46</f>
         <v>14</v>
       </c>
-      <c r="B46" s="2">
+      <c r="M46" s="13">
+        <f t="shared" ref="M46" si="23">I46*$M$2</f>
+        <v>14.374999999999998</v>
+      </c>
+      <c r="N46" s="13">
+        <f t="shared" ref="N46" si="24">I46*$M$3</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="O46" s="10">
+        <v>4</v>
+      </c>
+      <c r="P46" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="31"/>
+    </row>
+    <row r="47" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2">
         <v>15</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="15">
         <v>3.5</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H47" s="15">
         <v>3.5</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I47" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J47" s="23">
         <f t="shared" si="12"/>
         <v>8.75</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K47" s="10">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L47" s="12">
         <f t="shared" si="3"/>
         <v>12.25</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M47" s="13">
         <f t="shared" si="13"/>
         <v>14.374999999999998</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="13">
         <f t="shared" si="14"/>
         <v>3.4499999999999997</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O47" s="10">
         <v>3</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P47" s="10">
         <v>3</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="Q47" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="15">
         <v>4</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H48" s="15">
         <v>3.7</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I48" s="15">
         <v>2.4</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J48" s="23">
         <f t="shared" si="12"/>
         <v>9.85</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K48" s="10">
         <f t="shared" si="2"/>
         <v>3.85</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L48" s="12">
         <f t="shared" si="3"/>
         <v>13.7</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M48" s="13">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N48" s="13">
         <f t="shared" si="14"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="O47" s="10">
+      <c r="O48" s="10">
         <v>2</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P48" s="10">
         <v>4</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+    </row>
+    <row r="49" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>16</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2">
         <v>16</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H49" s="16">
         <v>4.3</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I49" s="16">
         <v>2.5</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J49" s="23">
         <f t="shared" si="12"/>
         <v>10.35</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K49" s="10">
         <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L49" s="12">
         <f t="shared" si="3"/>
         <v>14.549999999999999</v>
-      </c>
-      <c r="M48" s="13">
-        <f t="shared" si="13"/>
-        <v>15.625</v>
-      </c>
-      <c r="N48" s="13">
-        <f t="shared" si="14"/>
-        <v>3.75</v>
-      </c>
-      <c r="O48" s="10">
-        <v>4</v>
-      </c>
-      <c r="P48" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="H49" s="16">
-        <v>4.5</v>
-      </c>
-      <c r="I49" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="J49" s="23">
-        <f t="shared" si="12"/>
-        <v>10.65</v>
-      </c>
-      <c r="K49" s="10">
-        <f t="shared" si="2"/>
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="L49" s="12">
-        <f t="shared" si="3"/>
-        <v>15</v>
       </c>
       <c r="M49" s="13">
         <f t="shared" si="13"/>
@@ -3724,32 +3800,32 @@
         <v>3.75</v>
       </c>
       <c r="O49" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P49" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G50" s="16">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="H50" s="16">
         <v>4.5</v>
@@ -3759,15 +3835,15 @@
       </c>
       <c r="J50" s="23">
         <f t="shared" si="12"/>
-        <v>11.45</v>
+        <v>10.65</v>
       </c>
       <c r="K50" s="10">
         <f t="shared" si="2"/>
-        <v>4.55</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L50" s="12">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50" s="13">
         <f t="shared" si="13"/>
@@ -3778,24 +3854,26 @@
         <v>3.75</v>
       </c>
       <c r="O50" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P50" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="R50" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>57</v>
@@ -3833,61 +3911,53 @@
         <v>4</v>
       </c>
       <c r="P51" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>19</v>
-      </c>
-      <c r="B52" s="2">
-        <v>18</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="H52" s="15">
-        <v>3</v>
-      </c>
-      <c r="I52" s="15">
-        <v>2.2000000000000002</v>
+      <c r="G52" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H52" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="I52" s="16">
+        <v>2.5</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="12"/>
-        <v>9.9</v>
+        <v>11.45</v>
       </c>
       <c r="K52" s="10">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.55</v>
       </c>
       <c r="L52" s="12">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="M52" s="13">
         <f t="shared" si="13"/>
-        <v>13.750000000000002</v>
+        <v>15.625</v>
       </c>
       <c r="N52" s="13">
         <f t="shared" si="14"/>
-        <v>3.3000000000000003</v>
+        <v>3.75</v>
       </c>
       <c r="O52" s="10">
         <v>4</v>
@@ -3896,50 +3966,58 @@
         <v>5</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="9"/>
+      <c r="A53" s="2">
+        <v>19</v>
+      </c>
+      <c r="B53" s="2">
+        <v>18</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="D53" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G53" s="15">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H53" s="15">
         <v>3</v>
       </c>
       <c r="I53" s="15">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="12"/>
-        <v>13.5</v>
+        <v>9.9</v>
       </c>
       <c r="K53" s="10">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L53" s="12">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="M53" s="13">
         <f t="shared" si="13"/>
-        <v>16.25</v>
+        <v>13.750000000000002</v>
       </c>
       <c r="N53" s="13">
         <f t="shared" si="14"/>
-        <v>3.9000000000000004</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="O53" s="10">
         <v>4</v>
@@ -3948,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
@@ -3956,42 +4034,42 @@
     <row r="54" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="15">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H54" s="15">
         <v>3</v>
       </c>
       <c r="I54" s="15">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="12"/>
-        <v>9.9</v>
+        <v>13.5</v>
       </c>
       <c r="K54" s="10">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="M54" s="13">
         <f t="shared" si="13"/>
-        <v>13.750000000000002</v>
+        <v>16.25</v>
       </c>
       <c r="N54" s="13">
         <f t="shared" si="14"/>
-        <v>3.3000000000000003</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="O54" s="10">
         <v>4</v>
@@ -4000,106 +4078,106 @@
         <v>5</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>174</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="16">
-        <v>5.4</v>
-      </c>
-      <c r="H55" s="16">
-        <v>5.4</v>
-      </c>
-      <c r="I55" s="16">
-        <v>2.8</v>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H55" s="15">
+        <v>3</v>
+      </c>
+      <c r="I55" s="15">
+        <v>2.2000000000000002</v>
       </c>
       <c r="J55" s="23">
         <f t="shared" si="12"/>
-        <v>13.5</v>
+        <v>9.9</v>
       </c>
       <c r="K55" s="10">
         <f t="shared" si="2"/>
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" ref="L55:L56" si="20">J55+K55</f>
-        <v>18.899999999999999</v>
+        <f t="shared" si="3"/>
+        <v>13.5</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" ref="M55:M56" si="21">I55*$M$2</f>
-        <v>17.5</v>
+        <f t="shared" si="13"/>
+        <v>13.750000000000002</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" ref="N55:N56" si="22">I55*$M$3</f>
-        <v>4.1999999999999993</v>
+        <f t="shared" si="14"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="O55" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q55" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R55" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="S55" s="10"/>
     </row>
     <row r="56" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="D56" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G56" s="16">
         <v>5.4</v>
       </c>
       <c r="H56" s="16">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I56" s="16">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J56" s="23">
         <f t="shared" si="12"/>
-        <v>13.55</v>
+        <v>13.5</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" si="2"/>
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" si="20"/>
-        <v>19</v>
+        <f t="shared" ref="L56:L57" si="25">J56+K56</f>
+        <v>18.899999999999999</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="21"/>
-        <v>18.125</v>
+        <f t="shared" ref="M56:M57" si="26">I56*$M$2</f>
+        <v>17.5</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="22"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" ref="N56:N57" si="27">I56*$M$3</f>
+        <v>4.1999999999999993</v>
       </c>
       <c r="O56" s="10">
         <v>3</v>
@@ -4107,285 +4185,396 @@
       <c r="P56" s="10">
         <v>4</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="Q56" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+    </row>
+    <row r="57" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="H57" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="I57" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="J57" s="23">
+        <f t="shared" si="12"/>
+        <v>13.55</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="2"/>
+        <v>5.45</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="M57" s="13">
+        <f t="shared" si="26"/>
+        <v>18.125</v>
+      </c>
+      <c r="N57" s="13">
+        <f t="shared" si="27"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O57" s="10">
+        <v>3</v>
+      </c>
+      <c r="P57" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="R57" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="S56" s="10"/>
-    </row>
-    <row r="57" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>22</v>
-      </c>
-      <c r="B57" s="2">
-        <v>20</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="15">
-        <v>6.3</v>
-      </c>
-      <c r="H57" s="15">
-        <v>6</v>
-      </c>
-      <c r="I57" s="15">
-        <v>3.2</v>
-      </c>
-      <c r="J57" s="23">
-        <f t="shared" ref="J57:J85" si="23">(G57*$I$2)+(H57*$I$3)</f>
-        <v>15.6</v>
-      </c>
-      <c r="K57" s="10">
-        <f t="shared" ref="K57:K85" si="24">(G57*$I$5)+(H57*$I$6)+(I57*$I$7)</f>
-        <v>6.15</v>
-      </c>
-      <c r="L57" s="12">
-        <f t="shared" ref="L57:L85" si="25">J57+K57</f>
-        <v>21.75</v>
-      </c>
-      <c r="M57" s="13">
-        <f t="shared" ref="M57:M85" si="26">I57*$M$2</f>
-        <v>20</v>
-      </c>
-      <c r="N57" s="13">
-        <f t="shared" ref="N57:N85" si="27">I57*$M$3</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="O57" s="10">
-        <v>4</v>
-      </c>
-      <c r="P57" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
+        <v>22</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="H58" s="15">
+        <v>6</v>
+      </c>
+      <c r="I58" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" ref="J58:J81" si="28">(G58*$I$2)+(H58*$I$3)</f>
+        <v>15.6</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" ref="K58:K81" si="29">(G58*$I$5)+(H58*$I$6)+(I58*$I$7)</f>
+        <v>6.15</v>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" ref="L58:L81" si="30">J58+K58</f>
+        <v>21.75</v>
+      </c>
+      <c r="M58" s="13">
+        <f t="shared" ref="M58:M81" si="31">I58*$M$2</f>
+        <v>20</v>
+      </c>
+      <c r="N58" s="13">
+        <f t="shared" ref="N58:N81" si="32">I58*$M$3</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O58" s="10">
+        <v>4</v>
+      </c>
+      <c r="P58" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S58" s="10"/>
+    </row>
+    <row r="59" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>14</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>15</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-    </row>
-    <row r="59" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="D59" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2.4</v>
+      </c>
       <c r="J59" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>11.5</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>3.25</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>14.75</v>
       </c>
       <c r="M59" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>15</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
+        <f t="shared" si="32"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="O59" s="10">
+        <v>2</v>
+      </c>
+      <c r="P59" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="C60" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" s="4">
+        <v>3</v>
+      </c>
+      <c r="H60" s="4">
+        <v>6</v>
+      </c>
+      <c r="I60" s="4">
+        <v>3</v>
+      </c>
       <c r="J60" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>9</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>4.5</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>13.5</v>
       </c>
       <c r="M60" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>18.75</v>
       </c>
       <c r="N60" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
+        <f t="shared" si="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="O60" s="10">
+        <v>1</v>
+      </c>
+      <c r="P60" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="R60" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="A61" s="2">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H61" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I61" s="4">
+        <v>3.3</v>
+      </c>
       <c r="J61" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>17.75</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>6.5</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>24.25</v>
       </c>
       <c r="M61" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>20.625</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
+        <f t="shared" si="32"/>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="O61" s="10">
+        <v>2</v>
+      </c>
+      <c r="P61" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="26" t="s">
+        <v>230</v>
+      </c>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="A62" s="2">
+        <v>24</v>
+      </c>
+      <c r="B62" s="2">
+        <v>20</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="9">
+        <v>7</v>
+      </c>
+      <c r="H62" s="9">
+        <v>6</v>
+      </c>
+      <c r="I62" s="9">
+        <v>3.2</v>
+      </c>
       <c r="J62" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>17</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>6.5</v>
       </c>
       <c r="L62" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>23.5</v>
       </c>
       <c r="M62" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>20</v>
       </c>
       <c r="N62" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
+        <f t="shared" si="32"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O62" s="10">
+        <v>3</v>
+      </c>
+      <c r="P62" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="26" t="s">
+        <v>228</v>
+      </c>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="C63" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K63" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M63" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N63" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O63" s="10"/>
@@ -4395,31 +4584,35 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K64" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L64" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N64" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O64" s="10"/>
@@ -4429,35 +4622,24 @@
       <c r="S64" s="10"/>
     </row>
     <row r="65" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="C65" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -4465,33 +4647,18 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="10"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="J66" s="23"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -4500,38 +4667,23 @@
     </row>
     <row r="67" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="26" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="J67" s="23"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -4539,37 +4691,18 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>214</v>
-      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="23">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="12">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="13">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="J68" s="23"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
@@ -4578,23 +4711,34 @@
     </row>
     <row r="69" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>216</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
+      <c r="J69" s="23">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
@@ -4602,18 +4746,33 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="26"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="26"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
+      <c r="J70" s="23">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -4622,23 +4781,38 @@
     </row>
     <row r="71" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="26" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
+      <c r="J71" s="23">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -4646,18 +4820,33 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="26"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="26"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
+      <c r="J72" s="23">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
@@ -4666,32 +4855,36 @@
     </row>
     <row r="73" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+        <v>208</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>206</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K73" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L73" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M73" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N73" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O73" s="10"/>
@@ -4701,31 +4894,31 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="10"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L74" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M74" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N74" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O74" s="10"/>
@@ -4735,37 +4928,31 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>207</v>
-      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L75" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M75" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O75" s="10"/>
@@ -4777,29 +4964,29 @@
     <row r="76" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="26"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L76" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M76" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N76" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O76" s="10"/>
@@ -4809,37 +4996,31 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>208</v>
-      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L77" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M77" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N77" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O77" s="10"/>
@@ -4849,31 +5030,31 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="26"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="26"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K78" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L78" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M78" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O78" s="10"/>
@@ -4891,23 +5072,23 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K79" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L79" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M79" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N79" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O79" s="10"/>
@@ -4925,23 +5106,23 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K80" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L80" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M80" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N80" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O80" s="10"/>
@@ -4959,23 +5140,23 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K81" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L81" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M81" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N81" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O81" s="10"/>
@@ -4993,23 +5174,23 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K82" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L82" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="L82:L102" si="33">J82+K82</f>
         <v>0</v>
       </c>
       <c r="M82" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O82" s="10"/>
@@ -5027,23 +5208,23 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K83" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L83" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M83" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O83" s="10"/>
@@ -5061,23 +5242,23 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K84" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M84" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O84" s="10"/>
@@ -5095,23 +5276,23 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K85" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L85" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M85" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O85" s="10"/>
@@ -5137,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="12">
-        <f t="shared" ref="L86:L106" si="28">J86+K86</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M86" s="13">
@@ -5171,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M87" s="13">
@@ -5205,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M88" s="13">
@@ -5239,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M89" s="13">
@@ -5273,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M90" s="13">
@@ -5307,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M91" s="13">
@@ -5341,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M92" s="13">
@@ -5375,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M93" s="13">
@@ -5405,11 +5586,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K94:K138" si="34">(G94*$I$5)+(H94*$I$6)+(I94*$I$7)</f>
         <v>0</v>
       </c>
       <c r="L94" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M94" s="13">
@@ -5439,19 +5620,19 @@
         <v>0</v>
       </c>
       <c r="K95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L95" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M95" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M95:M138" si="35">I95*$M$2</f>
         <v>0</v>
       </c>
       <c r="N95" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N95:N138" si="36">I95*$M$3</f>
         <v>0</v>
       </c>
       <c r="O95" s="10"/>
@@ -5473,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L96" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M96" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N96" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O96" s="10"/>
@@ -5507,19 +5688,19 @@
         <v>0</v>
       </c>
       <c r="K97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L97" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M97" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N97" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O97" s="10"/>
@@ -5541,19 +5722,19 @@
         <v>0</v>
       </c>
       <c r="K98" s="10">
-        <f t="shared" ref="K98:K142" si="29">(G98*$I$5)+(H98*$I$6)+(I98*$I$7)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L98" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N98" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O98" s="10"/>
@@ -5575,19 +5756,19 @@
         <v>0</v>
       </c>
       <c r="K99" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L99" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M99" s="13">
-        <f t="shared" ref="M99:M142" si="30">I99*$M$2</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N99" s="13">
-        <f t="shared" ref="N99:N142" si="31">I99*$M$3</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O99" s="10"/>
@@ -5609,19 +5790,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L100" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M100" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N100" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O100" s="10"/>
@@ -5643,19 +5824,19 @@
         <v>0</v>
       </c>
       <c r="K101" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L101" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M101" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N101" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O101" s="10"/>
@@ -5677,19 +5858,19 @@
         <v>0</v>
       </c>
       <c r="K102" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L102" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M102" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N102" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O102" s="10"/>
@@ -5707,23 +5888,23 @@
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J103:J138" si="37">(G103*$I$2)+(H103*$I$3)</f>
         <v>0</v>
       </c>
       <c r="K103" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L103" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="L103:L138" si="38">J103+K103</f>
         <v>0</v>
       </c>
       <c r="M103" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O103" s="10"/>
@@ -5741,23 +5922,23 @@
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K104" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L104" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M104" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N104" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O104" s="10"/>
@@ -5775,23 +5956,23 @@
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K105" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L105" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M105" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N105" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O105" s="10"/>
@@ -5809,23 +5990,23 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K106" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L106" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M106" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O106" s="10"/>
@@ -5843,23 +6024,23 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="23">
-        <f t="shared" ref="J107:J142" si="32">(G107*$I$2)+(H107*$I$3)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K107" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L107" s="12">
-        <f t="shared" ref="L107:L142" si="33">J107+K107</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M107" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N107" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O107" s="10"/>
@@ -5877,23 +6058,23 @@
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K108" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L108" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M108" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N108" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O108" s="10"/>
@@ -5911,23 +6092,23 @@
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K109" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L109" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M109" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N109" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O109" s="10"/>
@@ -5945,23 +6126,23 @@
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K110" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L110" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M110" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N110" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O110" s="10"/>
@@ -5979,23 +6160,23 @@
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K111" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L111" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M111" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N111" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O111" s="10"/>
@@ -6013,23 +6194,23 @@
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K112" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L112" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M112" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N112" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O112" s="10"/>
@@ -6047,23 +6228,23 @@
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K113" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L113" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M113" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O113" s="10"/>
@@ -6081,23 +6262,23 @@
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
       <c r="J114" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K114" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L114" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M114" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N114" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O114" s="10"/>
@@ -6115,23 +6296,23 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
       <c r="J115" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K115" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L115" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M115" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N115" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O115" s="10"/>
@@ -6149,23 +6330,23 @@
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K116" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L116" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M116" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N116" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O116" s="10"/>
@@ -6183,23 +6364,23 @@
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
       <c r="J117" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K117" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L117" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M117" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N117" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O117" s="10"/>
@@ -6217,23 +6398,23 @@
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
       <c r="J118" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K118" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L118" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M118" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N118" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O118" s="10"/>
@@ -6251,23 +6432,23 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
       <c r="J119" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K119" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L119" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M119" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N119" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O119" s="10"/>
@@ -6285,23 +6466,23 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K120" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L120" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M120" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N120" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O120" s="10"/>
@@ -6319,23 +6500,23 @@
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K121" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L121" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M121" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N121" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O121" s="10"/>
@@ -6353,23 +6534,23 @@
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
       <c r="J122" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K122" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L122" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M122" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N122" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O122" s="10"/>
@@ -6387,23 +6568,23 @@
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
       <c r="J123" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K123" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L123" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M123" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N123" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O123" s="10"/>
@@ -6421,23 +6602,23 @@
       <c r="H124" s="10"/>
       <c r="I124" s="10"/>
       <c r="J124" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K124" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L124" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M124" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N124" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O124" s="10"/>
@@ -6455,23 +6636,23 @@
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
       <c r="J125" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K125" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L125" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M125" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N125" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O125" s="10"/>
@@ -6489,23 +6670,23 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
       <c r="J126" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K126" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L126" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M126" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N126" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O126" s="10"/>
@@ -6523,23 +6704,23 @@
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
       <c r="J127" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K127" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L127" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M127" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O127" s="10"/>
@@ -6557,23 +6738,23 @@
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
       <c r="J128" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K128" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L128" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M128" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N128" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O128" s="10"/>
@@ -6591,23 +6772,23 @@
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K129" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L129" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M129" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N129" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O129" s="10"/>
@@ -6625,23 +6806,23 @@
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
       <c r="J130" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K130" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L130" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M130" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N130" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O130" s="10"/>
@@ -6659,23 +6840,23 @@
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K131" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L131" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M131" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O131" s="10"/>
@@ -6693,23 +6874,23 @@
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K132" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L132" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M132" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O132" s="10"/>
@@ -6727,23 +6908,23 @@
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
       <c r="J133" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K133" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L133" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M133" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O133" s="10"/>
@@ -6761,23 +6942,23 @@
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K134" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L134" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M134" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N134" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O134" s="10"/>
@@ -6795,23 +6976,23 @@
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
       <c r="J135" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K135" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L135" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M135" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N135" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O135" s="10"/>
@@ -6829,23 +7010,23 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
       <c r="J136" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K136" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L136" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M136" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N136" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O136" s="10"/>
@@ -6863,23 +7044,23 @@
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
       <c r="J137" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K137" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L137" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M137" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N137" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O137" s="10"/>
@@ -6897,23 +7078,23 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
       <c r="J138" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K138" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L138" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M138" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N138" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O138" s="10"/>
@@ -6921,142 +7102,6 @@
       <c r="Q138" s="10"/>
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
-    </row>
-    <row r="139" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K139" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L139" s="12">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M139" s="13">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N139" s="13">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="10"/>
-      <c r="S139" s="10"/>
-    </row>
-    <row r="140" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K140" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L140" s="12">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M140" s="13">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N140" s="13">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="10"/>
-      <c r="R140" s="10"/>
-      <c r="S140" s="10"/>
-    </row>
-    <row r="141" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K141" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L141" s="12">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M141" s="13">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N141" s="13">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
-    </row>
-    <row r="142" spans="3:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K142" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L142" s="12">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M142" s="13">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N142" s="13">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7069,7 +7114,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7113,29 +7158,29 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.8</v>
+      <c r="A2" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.4</v>
       </c>
       <c r="F2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12"/>
@@ -7143,59 +7188,61 @@
       <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.9</v>
+      <c r="A3" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="J3" s="12"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1.1000000000000001</v>
+      <c r="A4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.3</v>
       </c>
       <c r="F4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>60</v>
+      <c r="H4" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
@@ -7203,29 +7250,29 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.2</v>
+      <c r="A5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.2</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
@@ -7233,120 +7280,56 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A8" s="25"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
@@ -7447,53 +7430,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="F5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="F6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="28">
         <v>1</v>
@@ -7501,7 +7484,7 @@
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
@@ -7588,7 +7571,7 @@
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -7679,7 +7662,7 @@
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12">
         <v>-0.1</v>
@@ -7715,7 +7698,7 @@
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F13">
         <v>-15</v>
